--- a/Assets/ExcelData/MapData.xlsx
+++ b/Assets/ExcelData/MapData.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2333,31 +2333,31 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2905,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="3">
         <v>0</v>
@@ -3041,19 +3041,19 @@
         <v>0</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
@@ -3172,10 +3172,10 @@
         <v>2</v>
       </c>
       <c r="S36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="3">
         <v>2</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="3">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P39" s="3">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T39" s="3">
         <v>0</v>

--- a/Assets/ExcelData/MapData.xlsx
+++ b/Assets/ExcelData/MapData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C96F790-476D-4FFD-9E2F-6EB989D3E35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,18 +32,18 @@
     <t>Enemy001+5,Enemy002+4,Enemy003+5,Enemy004+3,Enemy005+2,Enemy006+2,Enemy007+1,Enemy008+3</t>
   </si>
   <si>
-    <t>Enemy001+5,Enemy002+4,Enemy003+5,Enemy004+3,Enemy005+2,Enemy006+2,Enemy007+1,Enemy008+3</t>
+    <t>Enemy001+2,Enemy002+5,Enemy003+7,Enemy004+3,Enemy005+2,Enemy006+2,Enemy007+1,Enemy008+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy001+2,Enemy002+5,Enemy003+7,Enemy004+3,Enemy005+2,Enemy006+2,Enemy007+1,Enemy008+3</t>
+    <t>Enemy001+15,Enemy002+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,6 +205,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -239,6 +257,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,20 +449,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="6.25" style="2"/>
+    <col min="1" max="1" width="6.21875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="6.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -438,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -446,10 +481,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -532,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -615,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -698,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -781,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -864,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -947,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -1030,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -1113,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -1196,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -1279,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -1362,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -1445,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -1528,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -1611,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -1694,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0</v>
       </c>
@@ -1777,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -1860,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0</v>
       </c>
@@ -1943,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0</v>
       </c>
@@ -2109,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -2120,7 +2155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>0</v>
       </c>
@@ -2203,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0</v>
       </c>
@@ -2286,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>0</v>
       </c>
@@ -2369,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -2452,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>0</v>
       </c>
@@ -2535,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>0</v>
       </c>
@@ -2618,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -2701,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -2784,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>0</v>
       </c>
@@ -2867,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -2950,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>0</v>
       </c>
@@ -3033,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -3116,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>0</v>
       </c>
@@ -3199,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>0</v>
       </c>
@@ -3282,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>0</v>
       </c>
@@ -3365,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>0</v>
       </c>
@@ -3448,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>0</v>
       </c>
@@ -3531,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>0</v>
       </c>
@@ -3614,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>0</v>
       </c>
@@ -3697,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>0</v>
       </c>
@@ -3780,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>3</v>
       </c>
@@ -3788,10 +3823,10 @@
         <v>25</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>0</v>
       </c>
@@ -3874,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>0</v>
       </c>
@@ -3957,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>0</v>
       </c>
@@ -4040,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>0</v>
       </c>
@@ -4123,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>0</v>
       </c>
@@ -4206,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>0</v>
       </c>
@@ -4289,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>0</v>
       </c>
@@ -4372,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -4455,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>0</v>
       </c>
@@ -4538,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0</v>
       </c>
@@ -4621,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>0</v>
       </c>
@@ -4704,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>0</v>
       </c>
@@ -4787,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>0</v>
       </c>
@@ -4870,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>0</v>
       </c>
@@ -4953,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>0</v>
       </c>
@@ -5036,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>0</v>
       </c>
@@ -5119,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>0</v>
       </c>
@@ -5202,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>0</v>
       </c>
@@ -5285,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>0</v>
       </c>
@@ -5368,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>0</v>
       </c>
